--- a/Holafly_eSIM_DataUsage_Test_Cases.xlsx
+++ b/Holafly_eSIM_DataUsage_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahi/Downloads/Holafly e-SIM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72EADC-175E-4E48-8385-11E0B75E4ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE54381-0A51-2849-81E2-803E682A3018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27260" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Test Case Type</t>
-  </si>
-  <si>
     <t>Test Case Name</t>
   </si>
   <si>
@@ -47,12 +44,6 @@
   </si>
   <si>
     <t>TC-06</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
   </si>
   <si>
     <t>Verify internet browsing works with Holafly eSIM</t>
@@ -132,9 +123,6 @@
     <t>No playback, error indicating no data connection via Holafly.</t>
   </si>
   <si>
-    <t>PASS/FAIL</t>
-  </si>
-  <si>
     <t>TC-01</t>
   </si>
   <si>
@@ -145,6 +133,86 @@
   </si>
   <si>
     <t>TC-04</t>
+  </si>
+  <si>
+    <t>TC-07</t>
+  </si>
+  <si>
+    <t>TC-08</t>
+  </si>
+  <si>
+    <t>Verify APN settings</t>
+  </si>
+  <si>
+    <t>1.Go to Settings
+2.Connections
+3.Mobile networks
+4.Access Point Names
+5.Check the available APN you have</t>
+  </si>
+  <si>
+    <t>Holafly eSIM active</t>
+  </si>
+  <si>
+    <t>Show the APN for WEB</t>
+  </si>
+  <si>
+    <t>Verify 3G data</t>
+  </si>
+  <si>
+    <t>Verify 4G data</t>
+  </si>
+  <si>
+    <t>Verify 2G Data</t>
+  </si>
+  <si>
+    <t>TC-09</t>
+  </si>
+  <si>
+    <t>TC-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Should show 3G icon in status bar if network mode select as "WCDMA "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Should show 4G icon in status bar if network mode select as "LTE "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Should show 2G icon in status bar if network mode select as "GSM "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Settings
+2. Connections
+3. Mobile Networks
+4. Network mode eSIM
+5. Select "WCDMA".
+6.observe in notifications status bar shows 3G icon</t>
+  </si>
+  <si>
+    <t>1. Settings
+2. Connections
+3. Mobile Networks
+4. Network mode eSIM
+5. Select ""LTE"".
+6.observe in notifications status bar shows 4G icon"</t>
+  </si>
+  <si>
+    <t>1. Settings
+2. Connections
+3. Mobile Networks
+4. Network mode eSIM
+5. Select ""GSM"".
+6.observe in notifications status bar shows 2G icon"</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -181,12 +249,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -216,13 +290,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,24 +611,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,146 +646,205 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="100" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="140" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="140" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
